--- a/biology/Zoologie/Chanos_chanos/Chanos_chanos.xlsx
+++ b/biology/Zoologie/Chanos_chanos/Chanos_chanos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poisson-lait, Chano
 Le poisson-lait ou chano (Chanos chanos) est une espèce de poissons de la famille des Chanidae.
@@ -513,9 +525,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils peuvent atteindre 1,8 mètre de long[1], mais les adultes mesurent plus généralement 1 mètre de long.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils peuvent atteindre 1,8 mètre de long, mais les adultes mesurent plus généralement 1 mètre de long.
 Le corps est fusiforme, allongé, modérément comprimé, lisse et élancé. La couleur du corps est argentée au niveau du ventre et des côtés se dégradant à vert olive ou bleu au niveau du dos. Les nageoires dorsale, anale et caudale sont de couleur pâle ou jaunâtre avec les bords foncés. L'unique nageoire dorsale a 2 épines et de 13 à 17 rayons mous. La courte nageoire anale, qui comporte deux épines et de huit à dix rayons mous, se situe près de la nageoire caudale, grande et profondément échancrée avec de grandes écailles sur la base chez les adultes. Les nageoires pectorales, situées en bas du corps, comportent des écailles axillaires (base intérieure), comme les nageoires pelviennes abdominales, qui ont 11 ou 12 rayons. Les écailles sont cycloïdales, petites et lisses, 75-91 sur la ligne latérale. Un tissu « adipeux » transparent couvre l'œil. La bouche est petite et sans dents. La mâchoire inférieure avec un petit tubercule à son extrémité, s'adaptant à l'entaille de la mâchoire supérieure. Absence de gulaires osseux plats entre les deux côtés de la mâchoire inférieure. Quatre rayons branchiostegales soutenant le dessous des couvertures des branchies. Branchiospines fines et nombreuses. Les mâles peuvent être légèrement plus gros que les femelles.
 			En banc à la Réunion
 			Chano fraîchement pêché
@@ -548,10 +562,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chano (Chanos chanos) est la seule espèce dans la famille Chanidae. Son aire de répartition est limitée aux régions tropicales de basses latitudes ou régions subtropicales de l'hémisphère nord le long des plateaux continentaux et autour des îles, où les températures sont supérieures à 20 °C (mer Rouge, Afrique du Sud, Hawaï et îles Marquises, au nord vers le Japon, Taïwan et au sud vers Victoria, Australie ; et dans l'océan Pacifique oriental de San Pedro, Californie, îles Galápagos).
-Le poisson-lait passe la plus grande partie de sa vie en eau douce, en particulier dans les estuaires ou dans les eaux saumâtres des mangroves et ne gagne la mer que pour se reproduire[2].
+Le poisson-lait passe la plus grande partie de sa vie en eau douce, en particulier dans les estuaires ou dans les eaux saumâtres des mangroves et ne gagne la mer que pour se reproduire.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes forment de petits et grands bancs près des côtes ou autour des îles. Ce sont des migrateurs bien développés, grands (facilement 1,5 m et 20 kg), et qui atteignent la maturité sexuelle en cinq ans. Le chano fraye uniquement dans les eaux entièrement salines. Le frai coïncide le plus souvent avec les périodes de nouvelle ou pleine lune, il se produit souvent la nuit et, dans la majorité des régions, avec un ou deux pics saisonniers. Dans la nature, la ponte a lieu près des récifs de corail pendant les mois chauds de l'année, ainsi les populations près de l'équateur frayent tout le long de l'année. Les juvéniles et les adultes mangent une grande variété d'organismes relativement mous et petits, allant des nattes microbiennes aux détritus, les épiphytes et le zooplancton.
 Le chano est un poisson à sexes séparés et à reproduction sexuée. Dans la ponte du stock naturel, le sex-ratio est presque égal, avec un peu plus de femelles. La détermination du sexe est très difficile, vu qu'il n'y a aucune différence morphologique facilement identifiable entre les mâles et les femelles ; cependant, la phéromone PGF2a (prostaglandine) s'est avérée une manière efficace pour identifier le chano mâle mature.
@@ -616,7 +634,9 @@
           <t>Élevage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'élevage du chano en Indonésie, Taiwan et Philippines a commencé il y a environ 4-6 siècles. Les méthodes d'élevage, dans diverses clôtures, étaient constamment en amélioration. Depuis les années 1970, d'énormes investissements ont été réalisés aux Philippines (aussi bien qu'à Taiwan, en Indonésie et à Hawaï) en termes d'infrastructure, recherche, crédit et formation en appui à l'industrie de chano. 
 Ainsi, le Centre de Développement des Pêches de l'Asie du Sud-Est (SEAFDEC) du Département de l'Aquaculture (AQD) ayant pour vocation principale de résoudre les problèmes rencontrés dans l'aquaculture du chano, a été établi à Iloilo, Philippines en 1973. Des organismes publics et des établissements de pêche ont été également impliqués dans un effort national d'intensifier l'élevage de ce poisson dès les années 1970. Dans ce cadre, des efforts de développement de la recherche et des systèmes d'élevage, de la reproduction et des technologies de production d'alevins ont été réalisés. Il n'y a eu aucune tentative d'amélioration génétique mais la translocation et le commerce d'alevins ont eu lieu entre l'Indonésie, Taiwan et les Philippines. De même, des variations géographiques et une certaine hétérogénéité ont été enregistrées. Plus récemment, des rapports non certifiés indiquent que les chanos sont maintenant stockés au stade fingerling ou juvénile sur les Iles du Pacifique Sud et à Singapour et utilisés pour l’alimentation du thon en élevage.
@@ -650,7 +670,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Sept espèces éteintes classées dans cinq genres différents ont été recensées par ailleurs dans cette famille.
 </t>
